--- a/DualNet-TCM/Data/TCM/SD_Formula_Links.xlsx
+++ b/DualNet-TCM/Data/TCM/SD_Formula_Links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_planting\DualNet-TCM\Data\TCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_planting\DualNet-TCM\DualNet-TCM\Data\TCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F324F-4ACD-45F0-A2E0-4C5E112C3279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875A80C-A6D8-4343-B1E4-A3603F80A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1365">
   <si>
     <t>DNSID</t>
   </si>
@@ -4103,6 +4103,21 @@
   </si>
   <si>
     <t>DNF108716</t>
+  </si>
+  <si>
+    <t>DNS009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNF114844</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS002</t>
   </si>
 </sst>
 </file>
@@ -4477,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1423"/>
+  <dimension ref="A1:B1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1416" workbookViewId="0">
+      <selection activeCell="D1430" sqref="D1430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -15869,6 +15884,142 @@
         <v>556</v>
       </c>
     </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>1362</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
